--- a/formatacao_colunas.xlsx
+++ b/formatacao_colunas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1B5E42-E876-4D40-9FA0-AF46D6E3654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0AB8B6-2D7C-4782-BB04-069F795F32A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{66106DC4-2EF1-4943-AB19-158F57671AFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66106DC4-2EF1-4943-AB19-158F57671AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="346">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1057,6 +1057,12 @@
   </si>
   <si>
     <t>GRAU DE PRIORIDADE</t>
+  </si>
+  <si>
+    <t>Quilometragem do ônibus</t>
+  </si>
+  <si>
+    <t>Km</t>
   </si>
 </sst>
 </file>
@@ -1602,11 +1608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B7F94B-41BD-4C32-AC64-368540AFC407}">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3923,6 +3929,18 @@
       </c>
       <c r="D192" s="12"/>
     </row>
+    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D193" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
